--- a/Juhui_Jang_Test.xlsx
+++ b/Juhui_Jang_Test.xlsx
@@ -68,8 +68,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.4296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.39453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
